--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3662.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3662.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.2421624455404</v>
+        <v>1.027338027954102</v>
       </c>
       <c r="B1">
-        <v>1.744010688002909</v>
+        <v>1.256792664527893</v>
       </c>
       <c r="C1">
-        <v>3.173237027991957</v>
+        <v>1.066801905632019</v>
       </c>
       <c r="D1">
-        <v>7.367793111730683</v>
+        <v>1.006998658180237</v>
       </c>
       <c r="E1">
-        <v>1.358413200682773</v>
+        <v>1.060535550117493</v>
       </c>
     </row>
   </sheetData>
